--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,6 +1179,29 @@
       <c r="E28" t="inlineStr">
         <is>
           <t>《痘疹仁端录》卷十一。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>连花清瘟</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>连翘、金银花、炙麻黄、炒苦杏仁、石膏、板蓝根、绵马贯众、鱼腥草、广藿香、大黄、红景天、薄荷脑、甘草</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>清瘟解毒，宣肺泄热</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2920"/>
+  <dimension ref="A1:B2934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36238,6 +36261,174 @@
       <c r="B2920" t="inlineStr">
         <is>
           <t>DNH2508</t>
+        </is>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>DNH3279</t>
+        </is>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>DNH2786</t>
+        </is>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>DNH6658</t>
+        </is>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>DNH3123</t>
+        </is>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>DNH4848</t>
+        </is>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>DNH0239</t>
+        </is>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>DNH1857</t>
+        </is>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>DNH1855</t>
+        </is>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>DNH6337</t>
+        </is>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>DNH1867</t>
+        </is>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>DNH0979</t>
+        </is>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>DNH2216</t>
+        </is>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>DNH0389</t>
+        </is>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
+        </is>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>DNH1626</t>
         </is>
       </c>
     </row>
@@ -36252,7 +36443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36809,6468 +37000,6744 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DNH0244</t>
+          <t>DNH0239</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BAN XIA</t>
+          <t>BAN LAN GEN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>半夏</t>
+          <t>板蓝根</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>tuber of Pinellia</t>
+          <t>Root of Dyers Woad.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Rhizoma Pinelliae</t>
+          <t>Radix Isatidis seu Baphicacanthi</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5800</v>
+        <v>3370</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>HERB000330</t>
+          <t>HERB000323</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DNH0279</t>
+          <t>DNH0244</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BEI MU</t>
+          <t>BAN XIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>贝母</t>
+          <t>半夏</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bulb of Fritillary</t>
+          <t>tuber of Pinellia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bulbus Fritillariae</t>
+          <t>Rhizoma Pinelliae</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3167</v>
+        <v>5800</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>HERB000400</t>
+          <t>HERB000330</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DNH0284</t>
+          <t>DNH0279</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BEI WU WEI</t>
+          <t>BEI MU</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>北五味</t>
+          <t>贝母</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>fruit of Chinese Nmagnoliavine</t>
+          <t>Bulb of Fritillary</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fructus Schiandrae</t>
+          <t>Bulbus Fritillariae</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5523</v>
+        <v>3167</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>HERB000408</t>
+          <t>HERB000400</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DNH0330</t>
+          <t>DNH0284</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BEI WU WEI ZI</t>
+          <t>BEI WU WEI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>北五味子</t>
+          <t>北五味</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Schisandrae Chinensis Fructus</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+          <t>fruit of Chinese Nmagnoliavine</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Fructus Schiandrae</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>5523</v>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>HERB007108</t>
+          <t>HERB000408</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DNH0346</t>
+          <t>DNH0330</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BI XIE</t>
+          <t>BEI WU WEI ZI</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>萆薢</t>
+          <t>北五味子</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hypoglaucous Collett Yam Equivalent plant: Dioscorea gracillima , Dioscorea tokoro</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Dioscorea hypoglauca [Syn. Dioscorea collettii var. hypoglauca]</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4981</v>
-      </c>
+          <t>Schisandrae Chinensis Fructus</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>HERB000439</t>
+          <t>HERB007108</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DNH0380</t>
+          <t>DNH0346</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BING LANG</t>
+          <t>BI XIE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>槟榔</t>
+          <t>萆薢</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>areca seed</t>
+          <t>Hypoglaucous Collett Yam Equivalent plant: Dioscorea gracillima , Dioscorea tokoro</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>semen arecae</t>
+          <t>Dioscorea hypoglauca [Syn. Dioscorea collettii var. hypoglauca]</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2896</v>
+        <v>4981</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>HERB000497</t>
+          <t>HERB000439</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DNH0383</t>
+          <t>DNH0380</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BING TANG</t>
+          <t>BING LANG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>冰糖</t>
+          <t>槟榔</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>crystal sugar</t>
+          <t>areca seed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>crystal sugar</t>
+          <t>semen arecae</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2656</v>
+        <v>2896</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>HERB000500</t>
+          <t>HERB000497</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DNH0388</t>
+          <t>DNH0383</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BO HE</t>
+          <t>BING TANG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>薄荷</t>
+          <t>冰糖</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mentha, Peppermint</t>
+          <t>crystal sugar</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>herba Menthae</t>
+          <t>crystal sugar</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5534</v>
+        <v>2656</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>HERB000508</t>
+          <t>HERB000500</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DNH0510</t>
+          <t>DNH0388</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CANG ER GEN</t>
+          <t>BO HE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>苍耳根</t>
+          <t>薄荷</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Radix Xanthii sibirici</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>Mentha, Peppermint</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>herba Menthae</t>
+        </is>
+      </c>
       <c r="F25" t="n">
-        <v>4400</v>
+        <v>5534</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>HERB000578</t>
+          <t>HERB000508</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DNH0511</t>
+          <t>DNH0389</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CANG ER HUA</t>
+          <t>BO HE NAO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>苍耳花</t>
+          <t>薄荷脑</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Flos Xanthii sibirici</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>menthol</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Mentholum</t>
+        </is>
+      </c>
       <c r="F26" t="n">
-        <v>4050</v>
+        <v>3426</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>HERB000579</t>
+          <t>HERB000509</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DNH0512</t>
+          <t>DNH0510</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CANG ER ZI</t>
+          <t>CANG ER GEN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>苍耳子</t>
+          <t>苍耳根</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>fruit of Siberian Cockleblur</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Fructus Xanthii sibirici</t>
-        </is>
-      </c>
+          <t>Radix Xanthii sibirici</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>6163</v>
+        <v>4400</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>HERB000580</t>
+          <t>HERB000578</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DNH0513</t>
+          <t>DNH0511</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CANG ZHU</t>
+          <t>CANG ER HUA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>苍术</t>
+          <t>苍耳花</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rhizome of Swordlike Atractylodes</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Rhizoma Atractylodis</t>
-        </is>
-      </c>
+          <t>Flos Xanthii sibirici</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>5258</v>
+        <v>4050</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>HERB000584</t>
+          <t>HERB000579</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DNH0537</t>
+          <t>DNH0512</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CE ZI</t>
+          <t>CANG ER ZI</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>侧子</t>
+          <t>苍耳子</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Radix Aconiti carmichaeli</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>fruit of Siberian Cockleblur</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Fructus Xanthii sibirici</t>
+        </is>
+      </c>
       <c r="F29" t="n">
-        <v>3429</v>
+        <v>6163</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>HERB000616</t>
+          <t>HERB000580</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DNH0548</t>
+          <t>DNH0513</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHAI HU</t>
+          <t>CANG ZHU</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>柴胡</t>
+          <t>苍术</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>root of Chinese Thorowax</t>
+          <t>Rhizome of Swordlike Atractylodes</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Radix Bupleuri</t>
+          <t>Rhizoma Atractylodis</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3396</v>
+        <v>5258</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>HERB000638</t>
+          <t>HERB000584</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DNH0558</t>
+          <t>DNH0537</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CHAN TUI</t>
+          <t>CE ZI</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>蝉蜕</t>
+          <t>侧子</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cicada Slough</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Periostracum Cicadae</t>
-        </is>
-      </c>
+          <t>Radix Aconiti carmichaeli</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>2179</v>
+        <v>3429</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>HERB000651</t>
+          <t>HERB000616</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DNH0588</t>
+          <t>DNH0548</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CHANG PU</t>
+          <t>CHAI HU</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>菖蒲</t>
+          <t>柴胡</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rhizome of Grassleaf sweetflag.</t>
+          <t>root of Chinese Thorowax</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rhizoma Acori graminei</t>
+          <t>Radix Bupleuri</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1235</v>
+        <v>3396</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>HERB000702</t>
+          <t>HERB000638</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DNH0592</t>
+          <t>DNH0558</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHANG SHAN</t>
+          <t>CHAN TUI</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>常山</t>
+          <t>蝉蜕</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>root of antifebrile Dichroa</t>
+          <t>Cicada Slough</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Radix Dichroae</t>
+          <t>Periostracum Cicadae</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>7342</v>
+        <v>2179</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>HERB000706</t>
+          <t>HERB000651</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DNH0630</t>
+          <t>DNH0588</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CHE QIAN</t>
+          <t>CHANG PU</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>车前</t>
+          <t>菖蒲</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Asiatic Plantain Equivalent plant: Plantago major , Plantago depressa</t>
+          <t>rhizome of Grassleaf sweetflag.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Plantago asiatica</t>
+          <t>Rhizoma Acori graminei</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4816</v>
+        <v>1235</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>HERB000766</t>
+          <t>HERB000702</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DNH0634</t>
+          <t>DNH0592</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHE QIAN ZI</t>
+          <t>CHANG SHAN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>车前子</t>
+          <t>常山</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>seed of Asiatic pantain</t>
+          <t>root of antifebrile Dichroa</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Semen Plantaginis</t>
+          <t>Radix Dichroae</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3760</v>
+        <v>7342</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>HERB000770</t>
+          <t>HERB000706</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DNH0638</t>
+          <t>DNH0630</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CHEN PI</t>
+          <t>CHE QIAN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>陈皮</t>
+          <t>车前</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Dried Tangerine Peel</t>
+          <t>Asiatic Plantain Equivalent plant: Plantago major , Plantago depressa</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pericarpium Citri Reticulatae</t>
+          <t>Plantago asiatica</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1849</v>
+        <v>4816</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>HERB000775</t>
+          <t>HERB000766</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DNH0640</t>
+          <t>DNH0634</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CHEN XIANG</t>
+          <t>CHE QIAN ZI</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>沉香</t>
+          <t>车前子</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Oily wood of Agalloch Eaglewood</t>
+          <t>seed of Asiatic pantain</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lignum Aquilariae Resitum</t>
+          <t>Semen Plantaginis</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6726</v>
+        <v>3760</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>HERB000777</t>
+          <t>HERB000770</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DNH0649</t>
+          <t>DNH0638</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CHI FU LING</t>
+          <t>CHEN PI</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赤茯苓</t>
+          <t>陈皮</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rubra Poria</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>Dried Tangerine Peel</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pericarpium Citri Reticulatae</t>
+        </is>
+      </c>
       <c r="F38" t="n">
-        <v>3656</v>
+        <v>1849</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>HERB000794</t>
+          <t>HERB000775</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DNH0653</t>
+          <t>DNH0640</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CHI SHAO YAO</t>
+          <t>CHEN XIANG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赤芍药</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+          <t>沉香</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Oily wood of Agalloch Eaglewood</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Lignum Aquilariae Resitum</t>
+        </is>
+      </c>
       <c r="F39" t="n">
-        <v>7704</v>
+        <v>6726</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>HERB000802</t>
+          <t>HERB000777</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DNH0657</t>
+          <t>DNH0649</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CHI XIAO DOU</t>
+          <t>CHI FU LING</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赤小豆</t>
+          <t>赤茯苓</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rice Bean</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Semen Phaseoli</t>
-        </is>
-      </c>
+          <t>Rubra Poria</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>5082</v>
+        <v>3656</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>HERB000806</t>
+          <t>HERB000794</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DNH0735</t>
+          <t>DNH0653</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CHUAN BEI MU</t>
+          <t>CHI SHAO YAO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川贝母</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Bulb of Tendrilleaf Fritillary</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Bulbus Fritillariae Cirrhosae</t>
-        </is>
-      </c>
+          <t>赤芍药</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>6371</v>
+        <v>7704</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>HERB000849</t>
+          <t>HERB000802</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DNH0796</t>
+          <t>DNH0657</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CHUAN LIAN ZI</t>
+          <t>CHI XIAO DOU</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川楝子</t>
+          <t>赤小豆</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Szechwan Chiberry Fruit</t>
+          <t>Rice Bean</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Fructus Meliae Toosendan</t>
+          <t>Semen Phaseoli</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2502</v>
+        <v>5082</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>HERB000868</t>
+          <t>HERB000806</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DNH0800</t>
+          <t>DNH0735</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CHUAN NIU XI</t>
+          <t>CHUAN BEI MU</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川牛膝</t>
+          <t>川贝母</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>root of Medicil cyathula</t>
+          <t>Bulb of Tendrilleaf Fritillary</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Radix Cyathulae</t>
+          <t>Bulbus Fritillariae Cirrhosae</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3068</v>
+        <v>6371</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>HERB000872</t>
+          <t>HERB000849</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DNH0803</t>
+          <t>DNH0796</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CHUAN SHAN JIA</t>
+          <t>CHUAN LIAN ZI</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>穿山甲</t>
+          <t>川楝子</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Pangolin</t>
+          <t>Szechwan Chiberry Fruit</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Manis pentadactyla</t>
+          <t>Fructus Meliae Toosendan</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>7733</v>
+        <v>2502</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>HERB000876</t>
+          <t>HERB000868</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DNH0887</t>
+          <t>DNH0800</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CI SHI</t>
+          <t>CHUAN NIU XI</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>磁石</t>
+          <t>川牛膝</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Magnetite</t>
+          <t>root of Medicil cyathula</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Magnetitum</t>
+          <t>Radix Cyathulae</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1483</v>
+        <v>3068</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>HERB000935</t>
+          <t>HERB000872</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DNH0895</t>
+          <t>DNH0803</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CONG</t>
+          <t>CHUAN SHAN JIA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>葱</t>
+          <t>穿山甲</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Allium bulb, Wild scallion, Chinese green onion</t>
+          <t>Pangolin</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Bulbus Allii Fistulosi</t>
+          <t>Manis pentadactyla</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1283</v>
+        <v>7733</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>HERB000948</t>
+          <t>HERB000876</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DNH0896</t>
+          <t>DNH0887</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CONG BAI</t>
+          <t>CI SHI</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>葱白</t>
+          <t>磁石</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Allium bulb, Wild scallion, Chinese green onion</t>
+          <t>Magnetite</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Bulbus Allii Fistulosi</t>
+          <t>Magnetitum</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1428</v>
+        <v>1483</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>HERB000949</t>
+          <t>HERB000935</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DNH0906</t>
+          <t>DNH0895</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CU</t>
+          <t>CONG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>醋</t>
+          <t>葱</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Vinegar</t>
+          <t>Allium bulb, Wild scallion, Chinese green onion</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Vinegar</t>
+          <t>Bulbus Allii Fistulosi</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4873</v>
+        <v>1283</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>HERB000960</t>
+          <t>HERB000948</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DNH0979</t>
+          <t>DNH0896</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DA HUANG</t>
+          <t>CONG BAI</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>大黄</t>
+          <t>葱白</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>root and rhziome of Sorrel Rhubarb</t>
+          <t>Allium bulb, Wild scallion, Chinese green onion</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Radix et Rhizoma Rhei</t>
+          <t>Bulbus Allii Fistulosi</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>7047</v>
+        <v>1428</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>HERB001069</t>
+          <t>HERB000949</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DNH1039</t>
+          <t>DNH0906</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DA LI ZI</t>
+          <t>CU</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>大力子</t>
+          <t>醋</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>achene of Great Burdock</t>
+          <t>Vinegar</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fructus Arctii lappae</t>
+          <t>Vinegar</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1266</v>
+        <v>4873</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>HERB001086</t>
+          <t>HERB000960</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DNH1096</t>
+          <t>DNH0979</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DA ZAO</t>
+          <t>DA HUANG</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>大枣</t>
+          <t>大黄</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jujube Chinese date</t>
+          <t>root and rhziome of Sorrel Rhubarb</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fructus Zizyphi Jujubae</t>
+          <t>Radix et Rhizoma Rhei</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1076</v>
+        <v>7047</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>HERB001164</t>
+          <t>HERB001069</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DNH1148</t>
+          <t>DNH1039</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DAN DOU CHI</t>
+          <t>DA LI ZI</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>淡豆豉</t>
+          <t>大力子</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fermented Soybean</t>
+          <t>achene of Great Burdock</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Semen Sojae Praeparata</t>
+          <t>Fructus Arctii lappae</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2150</v>
+        <v>1266</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>HERB001175</t>
+          <t>HERB001086</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DNH1161</t>
+          <t>DNH1096</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DAN SHEN</t>
+          <t>DA ZAO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>丹参</t>
+          <t>大枣</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>root of Ligulilobe sage</t>
+          <t>Jujube Chinese date</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Radix Salviae liguliobae</t>
+          <t>Fructus Zizyphi Jujubae</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7296</v>
+        <v>1076</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>HERB001193</t>
+          <t>HERB001164</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DNH1172</t>
+          <t>DNH1148</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DANG SHEN</t>
+          <t>DAN DOU CHI</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>党参</t>
+          <t>淡豆豉</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>root Pilose Asiabell</t>
+          <t>Fermented Soybean</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Radix Codonopsis pilosulae</t>
+          <t>Semen Sojae Praeparata</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1345</v>
+        <v>2150</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>HERB001211</t>
+          <t>HERB001175</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DNH1245</t>
+          <t>DNH1161</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DI GU PI</t>
+          <t>DAN SHEN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>地骨皮</t>
+          <t>丹参</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>root - bark of Chinese Wolfberry</t>
+          <t>root of Ligulilobe sage</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cortex Lycii Radicis</t>
+          <t>Radix Salviae liguliobae</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5106</v>
+        <v>7296</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>HERB001249</t>
+          <t>HERB001193</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DNH1247</t>
+          <t>DNH1172</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DI HUANG</t>
+          <t>DANG SHEN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>地黄</t>
+          <t>党参</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Radix Rehmanniae</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>root Pilose Asiabell</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Radix Codonopsis pilosulae</t>
+        </is>
+      </c>
       <c r="F56" t="n">
-        <v>5698</v>
+        <v>1345</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>HERB001251</t>
+          <t>HERB001211</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DNH1332</t>
+          <t>DNH1245</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DOU CHI</t>
+          <t>DI GU PI</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>豆豉</t>
+          <t>地骨皮</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Prepared Soja, or Prepared soybean</t>
+          <t>root - bark of Chinese Wolfberry</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Semen Sojae Preparatum</t>
+          <t>Cortex Lycii Radicis</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1297</v>
+        <v>5106</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>HERB001374</t>
+          <t>HERB001249</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DNH1336</t>
+          <t>DNH1247</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DOU KOU</t>
+          <t>DI HUANG</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>豆蔻</t>
+          <t>地黄</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Round Cardamon Fruit</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Fructus Amomi Rotundus</t>
-        </is>
-      </c>
+          <t>Radix Rehmanniae</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>7678</v>
+        <v>5698</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>HERB001378</t>
+          <t>HERB001251</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DNH1347</t>
+          <t>DNH1332</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DU HUO</t>
+          <t>DOU CHI</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>独活</t>
+          <t>豆豉</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Doubleteeth Pubescent Angelica Root</t>
+          <t>Prepared Soja, or Prepared soybean</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Radix Angelicae Pubescentis</t>
+          <t>Semen Sojae Preparatum</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4449</v>
+        <v>1297</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>HERB001394</t>
+          <t>HERB001374</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DNH1355</t>
+          <t>DNH1336</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DU ZHONG</t>
+          <t>DOU KOU</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>杜仲</t>
+          <t>豆蔻</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Eucommia bark</t>
+          <t>Round Cardamon Fruit</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cortex Eucommiae</t>
+          <t>Fructus Amomi Rotundus</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6430</v>
+        <v>7678</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>HERB001409</t>
+          <t>HERB001378</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DNH1444</t>
+          <t>DNH1347</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>E JIAO</t>
+          <t>DU HUO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>阿胶</t>
+          <t>独活</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Donkey hide gelatin</t>
+          <t>Doubleteeth Pubescent Angelica Root</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Colla Corii Asini</t>
+          <t>Radix Angelicae Pubescentis</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>941</v>
+        <v>4449</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>HERB001564</t>
+          <t>HERB001394</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DNH1467</t>
+          <t>DNH1355</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FA BAN XIA</t>
+          <t>DU ZHONG</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>法半夏</t>
+          <t>杜仲</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Prepared Pinellia Tuber</t>
+          <t>Eucommia bark</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Rhizoma Pinelliae Preparata</t>
+          <t>Cortex Eucommiae</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5147</v>
+        <v>6430</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>HERB001604</t>
+          <t>HERB001409</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DNH1481</t>
+          <t>DNH1444</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FANG FENG</t>
+          <t>E JIAO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>防风</t>
+          <t>阿胶</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>root of Divaricate Saposhnikovia</t>
+          <t>Donkey hide gelatin</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Radix Saposhnikoviae divaricatae</t>
+          <t>Colla Corii Asini</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>7847</v>
+        <v>941</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>HERB001622</t>
+          <t>HERB001564</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DNH1485</t>
+          <t>DNH1467</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FANG JI</t>
+          <t>FA BAN XIA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>防己</t>
+          <t>法半夏</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Root of Fourstamen Stephania</t>
+          <t>Prepared Pinellia Tuber</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Radix Stephaniae Tetrandrae</t>
+          <t>Rhizoma Pinelliae Preparata</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4696</v>
+        <v>5147</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>HERB001626</t>
+          <t>HERB001604</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DNH1529</t>
+          <t>DNH1481</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FENG FANG</t>
+          <t>FANG FENG</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>蜂房</t>
+          <t>防风</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Honeycomb</t>
+          <t>root of Divaricate Saposhnikovia</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Nidus Vespae</t>
+          <t>Radix Saposhnikoviae divaricatae</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>6322</v>
+        <v>7847</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>HERB001702</t>
+          <t>HERB001622</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DNH1610</t>
+          <t>DNH1485</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FU LING</t>
+          <t>FANG JI</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>茯苓</t>
+          <t>防己</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Indian Bread</t>
+          <t>Root of Fourstamen Stephania</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Poria</t>
+          <t>Radix Stephaniae Tetrandrae</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>7870</v>
+        <v>4696</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>HERB001749</t>
+          <t>HERB001626</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DNH1620</t>
+          <t>DNH1529</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FU SHEN</t>
+          <t>FENG FANG</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>茯神</t>
+          <t>蜂房</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Indian Bread with Pine</t>
+          <t>Honeycomb</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Poria</t>
+          <t>Nidus Vespae</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5421</v>
+        <v>6322</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>HERB001765</t>
+          <t>HERB001702</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DNH1625</t>
+          <t>DNH1610</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FU ZI</t>
+          <t>FU LING</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>附子</t>
+          <t>茯苓</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Common Monkshood Daughter Root</t>
+          <t>Indian Bread</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Radix Aconiti Lateralis</t>
+          <t>Poria</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1173</v>
+        <v>7870</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>HERB001776</t>
+          <t>HERB001749</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DNH1626</t>
+          <t>DNH1620</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GAN CAO</t>
+          <t>FU SHEN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>甘草</t>
+          <t>茯神</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Root of Ural Licorice</t>
+          <t>Indian Bread with Pine</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Radix Glycyrrhizae</t>
+          <t>Poria</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>6801</v>
+        <v>5421</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>HERB001779</t>
+          <t>HERB001765</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DNH1630</t>
+          <t>DNH1625</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GAN DI HUANG</t>
+          <t>FU ZI</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>干地黄</t>
+          <t>附子</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Adhesive Rehmannia Dried Root</t>
+          <t>Common Monkshood Daughter Root</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Rehmannia glutinosa [Syn. Rehmannia glutinosa f. huechingensis]</t>
+          <t>Radix Aconiti Lateralis</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3094</v>
+        <v>1173</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>HERB001783</t>
+          <t>HERB001776</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DNH1634</t>
+          <t>DNH1626</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GAN JIANG</t>
+          <t>GAN CAO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>干姜</t>
+          <t>甘草</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Dried Ginger</t>
+          <t>Root of Ural Licorice</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rhizoma Zingiberis</t>
+          <t>Radix Glycyrrhizae</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1656</v>
+        <v>6801</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>HERB001787</t>
+          <t>HERB001779</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DNH1660</t>
+          <t>DNH1630</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GAO BEN</t>
+          <t>GAN DI HUANG</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>藁本</t>
+          <t>干地黄</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ligustici Rhizoma Et Radix</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>Adhesive Rehmannia Dried Root</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Rehmannia glutinosa [Syn. Rehmannia glutinosa f. huechingensis]</t>
+        </is>
+      </c>
       <c r="F72" t="n">
-        <v>3147</v>
+        <v>3094</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>HERB001821</t>
+          <t>HERB001783</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DNH1690</t>
+          <t>DNH1634</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GE GEN</t>
+          <t>GAN JIANG</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>葛根</t>
+          <t>干姜</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>root of lobed kudzuvine</t>
+          <t>Dried Ginger</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Radix Puerariae</t>
+          <t>Rhizoma Zingiberis</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>6205</v>
+        <v>1656</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>HERB001874</t>
+          <t>HERB001787</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DNH1728</t>
+          <t>DNH1660</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GOU TENG</t>
+          <t>GAO BEN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>钩藤</t>
+          <t>藁本</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Gambir Plant</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Ramulus Uncariae cum Uncis</t>
-        </is>
-      </c>
+          <t>Ligustici Rhizoma Et Radix</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>7305</v>
+        <v>3147</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>HERB001924</t>
+          <t>HERB001821</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DNH1748</t>
+          <t>DNH1690</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GUA LOU</t>
+          <t>GE GEN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>瓜蒌</t>
+          <t>葛根</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Trichosanthes Kirilowii Maxim</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
+          <t>root of lobed kudzuvine</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Radix Puerariae</t>
+        </is>
+      </c>
       <c r="F75" t="n">
-        <v>2612</v>
+        <v>6205</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>HERB001952</t>
+          <t>HERB001874</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DNH1913</t>
+          <t>DNH1728</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GUI ZHI</t>
+          <t>GOU TENG</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>桂枝</t>
+          <t>钩藤</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cassia Twig</t>
+          <t>Gambir Plant</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ramulus Cinmomi</t>
+          <t>Ramulus Uncariae cum Uncis</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3977</v>
+        <v>7305</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>HERB002062</t>
+          <t>HERB001924</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DNH1956</t>
+          <t>DNH1748</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HAI TONG PI</t>
+          <t>GUA LOU</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海桐皮</t>
+          <t>瓜蒌</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>bark of Oriental Variegated Coralbean</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Cortex erythrie</t>
-        </is>
-      </c>
+          <t>Trichosanthes Kirilowii Maxim</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>3519</v>
+        <v>2612</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>HERB002119</t>
+          <t>HERB001952</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DNH1974</t>
+          <t>DNH1855</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HAN SHUI SHI</t>
+          <t>GUAN ZHONG</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>寒水石</t>
+          <t>贯众</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>mirabilitum crystallina</t>
+          <t>root of Chinese Angelica</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Calcitum</t>
+          <t>Rhizoma Dryopteris crassirhizomae</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1431</v>
+        <v>3557</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>HERB002142</t>
+          <t>HERB001985</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DNH2007</t>
+          <t>DNH1857</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HE YE</t>
+          <t>GUAN ZONG</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>荷叶</t>
+          <t>贯众</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Lotus leaf</t>
+          <t>root of Chinese Angelica</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Folium Nelumbinis</t>
+          <t>Rhizoma Dryopteris crassirhizomae</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4171</v>
+        <v>3150</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>HERB002191</t>
+          <t>HERB001989</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DNH2010</t>
+          <t>DNH1867</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>HE ZI</t>
+          <t>GUANG HUO XIANG</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>诃子</t>
+          <t>广藿香</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Medicine Termilia Fruit</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Fructus Chebulae</t>
-        </is>
-      </c>
+          <t>Pogostemon Cablin (Blanco) Benth.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>7932</v>
+        <v>7983</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>HERB002194</t>
+          <t>HERB002002</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DNH2201</t>
+          <t>DNH1913</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>HONG HUA</t>
+          <t>GUI ZHI</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>红花</t>
+          <t>桂枝</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Safflower</t>
+          <t>Cassia Twig</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Flos Carthami</t>
+          <t>Ramulus Cinmomi</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2474</v>
+        <v>3977</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>HERB002276</t>
+          <t>HERB002062</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DNH2251</t>
+          <t>DNH1956</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HOU PU</t>
+          <t>HAI TONG PI</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>厚朴</t>
+          <t>海桐皮</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>bark of Officil magnolia</t>
+          <t>bark of Oriental Variegated Coralbean</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Cortex Magnoliae officilis</t>
+          <t>Cortex erythrie</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>5050</v>
+        <v>3519</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>HERB002342</t>
+          <t>HERB002119</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DNH2356</t>
+          <t>DNH1974</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>HUA FEN</t>
+          <t>HAN SHUI SHI</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>花粉</t>
+          <t>寒水石</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>root of Pedateleaf snakegourd</t>
+          <t>mirabilitum crystallina</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Radix Trichosanthis</t>
+          <t>Calcitum</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>6541</v>
+        <v>1431</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>HERB002418</t>
+          <t>HERB002142</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DNH2380</t>
+          <t>DNH2007</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>HUA SHI</t>
+          <t>HE YE</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>滑石</t>
+          <t>荷叶</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Talc</t>
+          <t>Lotus leaf</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Talcum</t>
+          <t>Folium Nelumbinis</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4660</v>
+        <v>4171</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>HERB002450</t>
+          <t>HERB002191</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DNH2395</t>
+          <t>DNH2010</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>HUAI NIU XI</t>
+          <t>HE ZI</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>怀牛膝</t>
+          <t>诃子</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>root of Twotooth Achyranthes</t>
+          <t>Medicine Termilia Fruit</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Radix Achyranthis bidentatae</t>
+          <t>Fructus Chebulae</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2225</v>
+        <v>7932</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>HERB002475</t>
+          <t>HERB002194</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DNH2487</t>
+          <t>DNH2201</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HUANG LIAN</t>
+          <t>HONG HUA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>黄连</t>
+          <t>红花</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rhizome of Chinese Goldthread</t>
+          <t>Safflower</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Rhizoma Coptidis</t>
+          <t>Flos Carthami</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>7648</v>
+        <v>2474</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>HERB002540</t>
+          <t>HERB002276</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DNH2489</t>
+          <t>DNH2216</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>HUANG LING</t>
+          <t>HONG JING TIAN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>黄苓</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+          <t>红景天</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>all - grass of Rhodiola</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Radix et Rhizoma Rhodiolae</t>
+        </is>
+      </c>
       <c r="F87" t="n">
-        <v>4715</v>
+        <v>6408</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>HERB002543</t>
+          <t>HERB002294</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DNH2508</t>
+          <t>DNH2251</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HUANG QIN</t>
+          <t>HOU PU</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>黄芩</t>
+          <t>厚朴</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>root of Baikal skullcap</t>
+          <t>bark of Officil magnolia</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Radix Scutellariae</t>
+          <t>Cortex Magnoliae officilis</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>6700</v>
+        <v>5050</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>HERB002563</t>
+          <t>HERB002342</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DNH2540</t>
+          <t>DNH2356</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HUI XIANG</t>
+          <t>HUA FEN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>茴香</t>
+          <t>花粉</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Fennel Fruit</t>
+          <t>root of Pedateleaf snakegourd</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Foeniculum vulgare</t>
+          <t>Radix Trichosanthis</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4943</v>
+        <v>6541</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>HERB002625</t>
+          <t>HERB002418</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DNH2570</t>
+          <t>DNH2380</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>JI LI</t>
+          <t>HUA SHI</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>蒺藜</t>
+          <t>滑石</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Puncturevine Caltrop Fruit</t>
+          <t>Talc</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Fructus Tribuli</t>
+          <t>Talcum</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1498</v>
+        <v>4660</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>HERB002679</t>
+          <t>HERB002450</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DNH2661</t>
+          <t>DNH2395</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>JIANG CAN</t>
+          <t>HUAI NIU XI</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>僵蚕</t>
+          <t>怀牛膝</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Stiff Silkworm</t>
+          <t>root of Twotooth Achyranthes</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Bombyx Batryticatus</t>
+          <t>Radix Achyranthis bidentatae</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>6890</v>
+        <v>2225</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>HERB002834</t>
+          <t>HERB002475</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DNH2689</t>
+          <t>DNH2487</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>JIE GENG</t>
+          <t>HUANG LIAN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>桔梗</t>
+          <t>黄连</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Platycodon Root</t>
+          <t>rhizome of Chinese Goldthread</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Radix Platycodi</t>
+          <t>Rhizoma Coptidis</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3507</v>
+        <v>7648</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>HERB002876</t>
+          <t>HERB002540</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DNH2691</t>
+          <t>DNH2489</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>JIE ZI</t>
+          <t>HUANG LING</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>芥子</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Mustard Seed</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Semen Sipis</t>
-        </is>
-      </c>
+          <t>黄苓</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>2909</v>
+        <v>4715</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>HERB002887</t>
+          <t>HERB002543</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DNH2742</t>
+          <t>DNH2508</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JIN FEI CAO</t>
+          <t>HUANG QIN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>金沸草</t>
+          <t>黄芩</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>All - grass of Japanese Inula</t>
+          <t>root of Baikal skullcap</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Herba Inulae</t>
+          <t>Radix Scutellariae</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4469</v>
+        <v>6700</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>HERB002896</t>
+          <t>HERB002563</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DNH2786</t>
+          <t>DNH2540</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>JIN YIN HUA</t>
+          <t>HUI XIANG</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>金银花</t>
+          <t>茴香</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Honeysuckle Flower</t>
+          <t>Fennel Fruit</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Flos Lonicerae</t>
+          <t>Foeniculum vulgare</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2475</v>
+        <v>4943</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>HERB002962</t>
+          <t>HERB002625</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DNH2843</t>
+          <t>DNH2570</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JING JIE</t>
+          <t>JI LI</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>荆芥</t>
+          <t>蒺藜</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>all-grass of Fineleaf Schizonepeta</t>
+          <t>Puncturevine Caltrop Fruit</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Herba Schizonepetae</t>
+          <t>Fructus Tribuli</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4526</v>
+        <v>1498</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>HERB002983</t>
+          <t>HERB002679</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DNH2891</t>
+          <t>DNH2661</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JING JIE SUI</t>
+          <t>JIANG CAN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>荆芥穗</t>
+          <t>僵蚕</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Schizonepetae Spica</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+          <t>Stiff Silkworm</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Bombyx Batryticatus</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>6890</v>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>HERB007108</t>
+          <t>HERB002834</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DNH2893</t>
+          <t>DNH2689</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JING MI</t>
+          <t>JIE GENG</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>粳米</t>
+          <t>桔梗</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Platycodon Root</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Radix Platycodi</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>6036</v>
+        <v>3507</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>HERB002989</t>
+          <t>HERB002876</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DNH2943</t>
+          <t>DNH2691</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JIU</t>
+          <t>JIE ZI</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>酒</t>
+          <t>芥子</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ethanol</t>
+          <t>Mustard Seed</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Vinum</t>
+          <t>Semen Sipis</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>5449</v>
+        <v>2909</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>HERB002999</t>
+          <t>HERB002887</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DNH3002</t>
+          <t>DNH2742</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JU HONG</t>
+          <t>JIN FEI CAO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>橘红</t>
+          <t>金沸草</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Citri Exocarpium Rubrum</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+          <t>All - grass of Japanese Inula</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Herba Inulae</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>4469</v>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>HERB007108</t>
+          <t>HERB002896</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DNH3005</t>
+          <t>DNH2786</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>JU HUA</t>
+          <t>JIN YIN HUA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>菊花</t>
+          <t>金银花</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Chrysanthemum Flower</t>
+          <t>Honeysuckle Flower</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Flos Chrysanthemi</t>
+          <t>Flos Lonicerae</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>7682</v>
+        <v>2475</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>HERB003031</t>
+          <t>HERB002962</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DNH3013</t>
+          <t>DNH2843</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>JU PI</t>
+          <t>JING JIE</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>橘皮</t>
+          <t>荆芥</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Tangerine Pericarp</t>
+          <t>all-grass of Fineleaf Schizonepeta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Citrus reticulata</t>
+          <t>Herba Schizonepetae</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>5295</v>
+        <v>4526</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>HERB003044</t>
+          <t>HERB002983</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DNH3060</t>
+          <t>DNH2891</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KU JIE GENG</t>
+          <t>JING JIE SUI</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>苦桔梗</t>
+          <t>荆芥穗</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Balloonflower root</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Radix Platycodi</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>3486</v>
-      </c>
+          <t>Schizonepetae Spica</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>HERB003149</t>
+          <t>HERB007108</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DNH3136</t>
+          <t>DNH2893</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KUAN DONG HUA</t>
+          <t>JING MI</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>款冬花</t>
+          <t>粳米</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>flower bud of common coltsfoot</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>flos farfarae</t>
+          <t>Oryza sativa</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2074</v>
+        <v>6036</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>HERB003192</t>
+          <t>HERB002989</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DNH3240</t>
+          <t>DNH2943</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>LEI WAN</t>
+          <t>JIU</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>雷丸</t>
+          <t>酒</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Thunder Ball</t>
+          <t>Ethanol</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>omphalia</t>
+          <t>Vinum</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5308</v>
+        <v>5449</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>HERB003291</t>
+          <t>HERB002999</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DNH3263</t>
+          <t>DNH3002</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LI YU</t>
+          <t>JU HONG</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>鲤鱼</t>
+          <t>橘红</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Carp</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Cyprinus carpio</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>5837</v>
-      </c>
+          <t>Citri Exocarpium Rubrum</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>HERB003341</t>
+          <t>HERB007108</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DNH3265</t>
+          <t>DNH3005</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>LI YU PI</t>
+          <t>JU HUA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>鲤鱼皮</t>
+          <t>菊花</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Carp Skin</t>
+          <t>Chrysanthemum Flower</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Cyprinus carpio</t>
+          <t>Flos Chrysanthemi</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2293</v>
+        <v>7682</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>HERB003343</t>
+          <t>HERB003031</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DNH3279</t>
+          <t>DNH3013</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>LIAN QIAO</t>
+          <t>JU PI</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>连翘</t>
+          <t>橘皮</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Weeping Forsythia Capsule</t>
+          <t>Tangerine Pericarp</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Fructus Forsythiae</t>
+          <t>Citrus reticulata</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4518</v>
+        <v>5295</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>HERB003361</t>
+          <t>HERB003044</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DNH3315</t>
+          <t>DNH3060</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LIGNUM PAEONIAE RUBRA</t>
+          <t>KU JIE GENG</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>赤芍</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>苦桔梗</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Balloonflower root</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Lignum Paeoniae Rubra</t>
+          <t>Radix Platycodi</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>6926</v>
+        <v>3486</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>HERB003416</t>
+          <t>HERB003149</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DNH3373</t>
+          <t>DNH3123</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LING YANG JIAO</t>
+          <t>KU XING REN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>羚羊角</t>
+          <t>苦杏仁</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Antelope Horn</t>
+          <t>bitter Apricot seed</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Cornu Saigae Tataricae</t>
+          <t>Semen armeniacae amarum</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1911</v>
+        <v>5014</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>HERB003441</t>
+          <t>HERB003174</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DNH3479</t>
+          <t>DNH3136</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LU GEN</t>
+          <t>KUAN DONG HUA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>芦根</t>
+          <t>款冬花</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reed rhizome </t>
+          <t>flower bud of common coltsfoot</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Rhizoma Phragmitis</t>
+          <t>flos farfarae</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>5927</v>
+        <v>2074</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>HERB003526</t>
+          <t>HERB003192</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DNH3609</t>
+          <t>DNH3240</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MA HUANG</t>
+          <t>LEI WAN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>麻黄</t>
+          <t>雷丸</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Ephedra</t>
+          <t>Thunder Ball</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Herba Ephedrae</t>
+          <t>omphalia</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1660</v>
+        <v>5308</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>HERB003658</t>
+          <t>HERB003291</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DNH3639</t>
+          <t>DNH3263</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MAI DONG</t>
+          <t>LI YU</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>麦冬</t>
+          <t>鲤鱼</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Liriope Equivalent plant: Liriope spicata var prolifera</t>
+          <t>Carp</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ophiopogon japonicus</t>
+          <t>Cyprinus carpio</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2522</v>
+        <v>5837</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>HERB003708</t>
+          <t>HERB003341</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DNH3644</t>
+          <t>DNH3265</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MAI YA</t>
+          <t>LI YU PI</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>麦芽</t>
+          <t>鲤鱼皮</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Germited Barley</t>
+          <t>Carp Skin</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Fructus Hordei Germitus</t>
+          <t>Cyprinus carpio</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>7659</v>
+        <v>2293</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>HERB003715</t>
+          <t>HERB003343</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DNH3648</t>
+          <t>DNH3279</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MAN JING ZI</t>
+          <t>LIAN QIAO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>蔓荆子</t>
+          <t>连翘</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Shrub Chastetree Fruit</t>
+          <t>Weeping Forsythia Capsule</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Fructus Viticis</t>
+          <t>Fructus Forsythiae</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>7428</v>
+        <v>4518</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>HERB003725</t>
+          <t>HERB003361</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DNH3823</t>
+          <t>DNH3315</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MO YAO</t>
+          <t>LIGNUM PAEONIAE RUBRA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>没药</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Myrrh</t>
-        </is>
-      </c>
+          <t>赤芍</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Resi myrrhae;Myrrha</t>
+          <t>Lignum Paeoniae Rubra</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4741</v>
+        <v>6926</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>HERB004004</t>
+          <t>HERB003416</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DNH3827</t>
+          <t>DNH3373</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MU DAN PI</t>
+          <t>LING YANG JIAO</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>牡丹皮</t>
+          <t>羚羊角</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tree Peony Bark</t>
+          <t>Antelope Horn</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Cortex Moutan</t>
+          <t>Cornu Saigae Tataricae</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>5813</v>
+        <v>1911</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>HERB004013</t>
+          <t>HERB003441</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DNH3854</t>
+          <t>DNH3479</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MU LI</t>
+          <t>LU GEN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>牡蛎</t>
+          <t>芦根</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Oyster</t>
+          <t xml:space="preserve">Reed rhizome </t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Crassostrea gigas</t>
+          <t>Rhizoma Phragmitis</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4287</v>
+        <v>5927</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>HERB004050</t>
+          <t>HERB003526</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DNH3863</t>
+          <t>DNH3609</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MU TONG</t>
+          <t>MA HUANG</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>木通</t>
+          <t>麻黄</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Akebia, Clematis stem</t>
+          <t>Ephedra</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Caulis Aristolochiae seu Clematis</t>
+          <t>Herba Ephedrae</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2276</v>
+        <v>1660</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>HERB004060</t>
+          <t>HERB003658</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DNH3912</t>
+          <t>DNH3639</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MU XIANG</t>
+          <t>MAI DONG</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>木香</t>
+          <t>麦冬</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Common Aucklandia Root</t>
+          <t>Liriope Equivalent plant: Liriope spicata var prolifera</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Radix Aucklandiae</t>
+          <t>Ophiopogon japonicus</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>5151</v>
+        <v>2522</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>HERB004064</t>
+          <t>HERB003708</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DNH4024</t>
+          <t>DNH3644</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NIU BANG ZI</t>
+          <t>MAI YA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>牛蒡子</t>
+          <t>麦芽</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>achene of Great Burdock</t>
+          <t>Germited Barley</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Fructus Arctii lappae</t>
+          <t>Fructus Hordei Germitus</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3673</v>
+        <v>7659</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>HERB004191</t>
+          <t>HERB003715</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DNH4077</t>
+          <t>DNH3648</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NIU HUANG</t>
+          <t>MAN JING ZI</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>牛黄</t>
+          <t>蔓荆子</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Cow-bezoar</t>
+          <t>Shrub Chastetree Fruit</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Calculus Bovis</t>
+          <t>Fructus Viticis</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4459</v>
+        <v>7428</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>HERB004201</t>
+          <t>HERB003725</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DNH4089</t>
+          <t>DNH3823</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NIU XI</t>
+          <t>MO YAO</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>牛膝</t>
+          <t>没药</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>root of Twotooth Achyranthes</t>
+          <t>Myrrh</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Radix Achyranthis bidentatae</t>
+          <t>Resi myrrhae;Myrrha</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>5736</v>
+        <v>4741</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>HERB004218</t>
+          <t>HERB004004</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DNH4242</t>
+          <t>DNH3827</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PO GU ZHI</t>
+          <t>MU DAN PI</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>破故纸</t>
+          <t>牡丹皮</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>fruit of Malaytea scurfpea</t>
+          <t>Tree Peony Bark</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Fructus Psoraleae Corylifoliae</t>
+          <t>Cortex Moutan</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>5149</v>
+        <v>5813</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>HERB004387</t>
+          <t>HERB004013</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>DNH4294</t>
+          <t>DNH3854</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>QIAN NIU ZI</t>
+          <t>MU LI</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>牵牛子</t>
+          <t>牡蛎</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Pharbitis seed</t>
+          <t>Oyster</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Semen Pharbitidis</t>
+          <t>Crassostrea gigas</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>4848</v>
+        <v>4287</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>HERB004469</t>
+          <t>HERB004050</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>DNH4298</t>
+          <t>DNH3863</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>QIANG HUO</t>
+          <t>MU TONG</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>羌活</t>
+          <t>木通</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Root and rhizome of Incised Notoptergium</t>
+          <t>Akebia, Clematis stem</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Radix et Rhizoma Notopterygii</t>
+          <t>Caulis Aristolochiae seu Clematis</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4776</v>
+        <v>2276</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>HERB004479</t>
+          <t>HERB004060</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DNH4315</t>
+          <t>DNH3912</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>QIN JIAO</t>
+          <t>MU XIANG</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>秦艽</t>
+          <t>木香</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>root of Largeleaf Gentian</t>
+          <t>Common Aucklandia Root</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Radix Gentiae macrophyllae</t>
+          <t>Radix Aucklandiae</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>6353</v>
+        <v>5151</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>HERB004507</t>
+          <t>HERB004064</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DNH4322</t>
+          <t>DNH4024</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>QING HAO</t>
+          <t>NIU BANG ZI</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>青蒿</t>
+          <t>牛蒡子</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Sweet Wormwood Herb</t>
+          <t>achene of Great Burdock</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Herba Artemisiae Annuae</t>
+          <t>Fructus Arctii lappae</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>7616</v>
+        <v>3673</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>HERB004520</t>
+          <t>HERB004191</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DNH4324</t>
+          <t>DNH4077</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>QING HAO ZI</t>
+          <t>NIU HUANG</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>青蒿子</t>
+          <t>牛黄</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Sweet Wormwood seed</t>
+          <t>Cow-bezoar</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Semen Artemisiae</t>
+          <t>Calculus Bovis</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>4049</v>
+        <v>4459</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>HERB004522</t>
+          <t>HERB004201</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>DNH4330</t>
+          <t>DNH4089</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>QING MU XIANG</t>
+          <t>NIU XI</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>青木香</t>
+          <t>牛膝</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Slender Dutchmanspipe Root Equivalent plant: Aristolochia contorta</t>
+          <t>root of Twotooth Achyranthes</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Aristolochia debilis [Syn. Aristolochia longa ]</t>
+          <t>Radix Achyranthis bidentatae</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>3611</v>
+        <v>5736</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>HERB004531</t>
+          <t>HERB004218</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DNH4378</t>
+          <t>DNH4242</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>RADIX CHUANXIONG</t>
+          <t>PO GU ZHI</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>川芎</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+          <t>破故纸</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>fruit of Malaytea scurfpea</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Fructus Psoraleae Corylifoliae</t>
+        </is>
+      </c>
       <c r="F131" t="n">
-        <v>3906</v>
+        <v>5149</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>HERB004596</t>
+          <t>HERB004387</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DNH4384</t>
+          <t>DNH4294</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>REN SHEN</t>
+          <t>QIAN NIU ZI</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>人参</t>
+          <t>牵牛子</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ginseng</t>
+          <t>Pharbitis seed</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Radix Ginseng</t>
+          <t>Semen Pharbitidis</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>3861</v>
+        <v>4848</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>HERB004609</t>
+          <t>HERB004469</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DNH4441</t>
+          <t>DNH4298</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ROU DOU KOU</t>
+          <t>QIANG HUO</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>肉豆蔻</t>
+          <t>羌活</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Nutmeg</t>
+          <t>Root and rhizome of Incised Notoptergium</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Semen Myristicae</t>
+          <t>Radix et Rhizoma Notopterygii</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>6668</v>
+        <v>4776</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>HERB004693</t>
+          <t>HERB004479</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>DNH4442</t>
+          <t>DNH4315</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ROU GUI</t>
+          <t>QIN JIAO</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>肉桂</t>
+          <t>秦艽</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Cassia Bark</t>
+          <t>root of Largeleaf Gentian</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Cortex Cinmomi</t>
+          <t>Radix Gentiae macrophyllae</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>7524</v>
+        <v>6353</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>HERB004694</t>
+          <t>HERB004507</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>DNH4452</t>
+          <t>DNH4322</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>RU XIANG</t>
+          <t>QING HAO</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>乳香</t>
+          <t>青蒿</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Frankincense</t>
+          <t>Sweet Wormwood Herb</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Resi oliani</t>
+          <t>Herba Artemisiae Annuae</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2834</v>
+        <v>7616</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>HERB004719</t>
+          <t>HERB004520</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>DNH4492</t>
+          <t>DNH4324</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SAN QI</t>
+          <t>QING HAO ZI</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>三七</t>
+          <t>青蒿子</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Sanchi</t>
+          <t>Sweet Wormwood seed</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Radix Notoginseng</t>
+          <t>Semen Artemisiae</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2443</v>
+        <v>4049</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>HERB004783</t>
+          <t>HERB004522</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>DNH4563</t>
+          <t>DNH4330</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SANG GEN</t>
+          <t>QING MU XIANG</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>桑根</t>
+          <t>青木香</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Radix Mori albae</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr"/>
+          <t>Slender Dutchmanspipe Root Equivalent plant: Aristolochia contorta</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Aristolochia debilis [Syn. Aristolochia longa ]</t>
+        </is>
+      </c>
       <c r="F137" t="n">
-        <v>2749</v>
+        <v>3611</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>HERB004827</t>
+          <t>HERB004531</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>DNH4572</t>
+          <t>DNH4378</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SANG ZHI</t>
+          <t>RADIX CHUANXIONG</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>桑枝</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Mulberry Twig</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Ramulus Mori</t>
-        </is>
-      </c>
+          <t>川芎</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>5020</v>
+        <v>3906</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>HERB004837</t>
+          <t>HERB004596</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>DNH4694</t>
+          <t>DNH4384</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SHAN DOU GEN</t>
+          <t>REN SHEN</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>山豆根</t>
+          <t>人参</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Vietmese Sophora Root</t>
+          <t>Ginseng</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Radix Sophorae Tonkinensis</t>
+          <t>Radix Ginseng</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1419</v>
+        <v>3861</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>HERB004883</t>
+          <t>HERB004609</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DNH4732</t>
+          <t>DNH4441</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SHAN YAO</t>
+          <t>ROU DOU KOU</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>山药</t>
+          <t>肉豆蔻</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Common Yam Rhizome</t>
+          <t>Nutmeg</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Rhizoma Dioscoreae</t>
+          <t>Semen Myristicae</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>6311</v>
+        <v>6668</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>HERB004938</t>
+          <t>HERB004693</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DNH4738</t>
+          <t>DNH4442</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SHAN ZHA</t>
+          <t>ROU GUI</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>山楂</t>
+          <t>肉桂</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Chinese Hawthorn Equivalent plant: Crataegus pinnatifida var major</t>
+          <t>Cassia Bark</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Crataegus pinnatifida</t>
+          <t>Cortex Cinmomi</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>3022</v>
+        <v>7524</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>HERB004945</t>
+          <t>HERB004694</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>DNH4743</t>
+          <t>DNH4452</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SHAN ZHU YU</t>
+          <t>RU XIANG</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>山茱萸</t>
+          <t>乳香</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Asiatic Cornelian Cherry Fruit</t>
+          <t>Frankincense</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Fructus Corni</t>
+          <t>Resi oliani</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>6859</v>
+        <v>2834</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>HERB004950</t>
+          <t>HERB004719</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>DNH4745</t>
+          <t>DNH4492</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SHANG BAI PI</t>
+          <t>SAN QI</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>桑白皮</t>
+          <t>三七</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Cortex Mori Albae Radicis</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
+          <t>Sanchi</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Radix Notoginseng</t>
+        </is>
+      </c>
       <c r="F143" t="n">
-        <v>5292</v>
+        <v>2443</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>HERB004954</t>
+          <t>HERB004783</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>DNH4752</t>
+          <t>DNH4563</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SHE CHUANG ZI</t>
+          <t>SANG GEN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>蛇床子</t>
+          <t>桑根</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Common Cnidium Fruit</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Fructus Cnidii</t>
-        </is>
-      </c>
+          <t>Radix Mori albae</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>7399</v>
+        <v>2749</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>HERB004971</t>
+          <t>HERB004827</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DNH4754</t>
+          <t>DNH4572</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SHE GAN</t>
+          <t>SANG ZHI</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>射干</t>
+          <t>桑枝</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Blackberrylily Rhizome</t>
+          <t>Mulberry Twig</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Rhizoma Belamcandae</t>
+          <t>Ramulus Mori</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>5207</v>
+        <v>5020</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>HERB004973</t>
+          <t>HERB004837</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>DNH4761</t>
+          <t>DNH4694</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SHE TUI</t>
+          <t>SHAN DOU GEN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>蛇蜕</t>
+          <t>山豆根</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Snake Slough</t>
+          <t>Vietmese Sophora Root</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Periostracum Serpentis</t>
+          <t>Radix Sophorae Tonkinensis</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2347</v>
+        <v>1419</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>HERB004983</t>
+          <t>HERB004883</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>DNH4762</t>
+          <t>DNH4732</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SHE XIANG</t>
+          <t>SHAN YAO</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>麝香</t>
+          <t>山药</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Abelmusk</t>
+          <t>Common Yam Rhizome</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Moschus moschiferus, Moschus berezovskii, Moschus sifanicus</t>
+          <t>Rhizoma Dioscoreae</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>4428</v>
+        <v>6311</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>HERB004984</t>
+          <t>HERB004938</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>DNH4777</t>
+          <t>DNH4738</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SHENG DI HUANG</t>
+          <t>SHAN ZHA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>生地黄</t>
+          <t>山楂</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Fresh rehmannia root</t>
+          <t>Chinese Hawthorn Equivalent plant: Crataegus pinnatifida var major</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Radix Rehmanniae</t>
+          <t>Crataegus pinnatifida</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4256</v>
+        <v>3022</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>HERB005012</t>
+          <t>HERB004945</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>DNH4782</t>
+          <t>DNH4743</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SHENG JIANG</t>
+          <t>SHAN ZHU YU</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>生姜</t>
+          <t>山茱萸</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Fresh Ginger</t>
+          <t>Asiatic Cornelian Cherry Fruit</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Rhizoma Zingiberis Recens</t>
+          <t>Fructus Corni</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>7484</v>
+        <v>6859</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>HERB005017</t>
+          <t>HERB004950</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DNH4783</t>
+          <t>DNH4745</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SHENG JIANG ZHI</t>
+          <t>SHANG BAI PI</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>生姜汁</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>桑白皮</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Cortex Mori Albae Radicis</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>2243</v>
+        <v>5292</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>HERB005018</t>
+          <t>HERB004954</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>DNH4787</t>
+          <t>DNH4752</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SHENG MA</t>
+          <t>SHE CHUANG ZI</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>升麻</t>
+          <t>蛇床子</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Largetrifoliolious Bugbane Rhizome</t>
+          <t>Common Cnidium Fruit</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Rhizoma Cimicifugae</t>
+          <t>Fructus Cnidii</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>3006</v>
+        <v>7399</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>HERB005022</t>
+          <t>HERB004971</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>DNH4848</t>
+          <t>DNH4754</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SHI GAO</t>
+          <t>SHE GAN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>石膏</t>
+          <t>射干</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Gypsum</t>
+          <t>Blackberrylily Rhizome</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gypsum Fibrosum</t>
+          <t>Rhizoma Belamcandae</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5107</v>
+        <v>5207</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>HERB005048</t>
+          <t>HERB004973</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>DNH4903</t>
+          <t>DNH4761</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SHI JUN ZI</t>
+          <t>SHE TUI</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>使君子</t>
+          <t>蛇蜕</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>fruit of Rangooncreeper</t>
+          <t>Snake Slough</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Fructus Quisqualis</t>
+          <t>Periostracum Serpentis</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2202</v>
+        <v>2347</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>HERB005062</t>
+          <t>HERB004983</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>DNH4922</t>
+          <t>DNH4762</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SHI SHI DANG GUI</t>
+          <t>SHE XIANG</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>当归</t>
+          <t>麝香</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Shkioki Angelica</t>
+          <t>Abelmusk</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Angelica shkiokiana</t>
+          <t>Moschus moschiferus, Moschus berezovskii, Moschus sifanicus</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4757</v>
+        <v>4428</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>HERB005088</t>
+          <t>HERB004984</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DNH4927</t>
+          <t>DNH4777</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SHI YAN</t>
+          <t>SHENG DI HUANG</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>食盐</t>
+          <t>生地黄</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Salt</t>
+          <t>Fresh rehmannia root</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Sal</t>
+          <t>Radix Rehmanniae</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>6292</v>
+        <v>4256</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>HERB005096</t>
+          <t>HERB005012</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>DNH4944</t>
+          <t>DNH4782</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SHU JIAO</t>
+          <t>SHENG JIANG</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>蜀椒</t>
+          <t>生姜</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Pricklyash Peel</t>
+          <t>Fresh Ginger</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Pericarpium Zanthoxyli</t>
+          <t>Rhizoma Zingiberis Recens</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>5675</v>
+        <v>7484</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>HERB005123</t>
+          <t>HERB005017</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>DNH5096</t>
+          <t>DNH4783</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SU MU</t>
+          <t>SHENG JIANG ZHI</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>苏木</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Sappan Caesalpinia</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Caesalpinia sappan</t>
-        </is>
-      </c>
+          <t>生姜汁</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>4597</v>
+        <v>2243</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>HERB005297</t>
+          <t>HERB005018</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>DNH5097</t>
+          <t>DNH4787</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SU QIAO</t>
+          <t>SHENG MA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>粟壳</t>
+          <t>升麻</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>poppy capsule</t>
+          <t>Largetrifoliolious Bugbane Rhizome</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>pericarpium papaveris</t>
+          <t>Rhizoma Cimicifugae</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>7621</v>
+        <v>3006</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>HERB005298</t>
+          <t>HERB005022</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>DNH5103</t>
+          <t>DNH4848</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SU YE</t>
+          <t>SHI GAO</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>苏叶</t>
+          <t>石膏</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>perilla leaf</t>
+          <t>Gypsum</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>folium perillae</t>
+          <t>Gypsum Fibrosum</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>7128</v>
+        <v>5107</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>HERB005304</t>
+          <t>HERB005048</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>DNH5104</t>
+          <t>DNH4903</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SU ZI</t>
+          <t>SHI JUN ZI</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>苏子</t>
+          <t>使君子</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Purple perilla fruit, Perilla seed</t>
+          <t>fruit of Rangooncreeper</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Fructus Perillae</t>
+          <t>Fructus Quisqualis</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>3604</v>
+        <v>2202</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>HERB005306</t>
+          <t>HERB005062</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DNH5162</t>
+          <t>DNH4922</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>SHI SHI DANG GUI</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>桃</t>
+          <t>当归</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Peach</t>
+          <t>Shkioki Angelica</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Prunus persica</t>
+          <t>Angelica shkiokiana</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>5445</v>
+        <v>4757</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>HERB005402</t>
+          <t>HERB005088</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DNH5169</t>
+          <t>DNH4927</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TAO REN</t>
+          <t>SHI YAN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>桃仁</t>
+          <t>食盐</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Peach Seed</t>
+          <t>Salt</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Semen Persicae</t>
+          <t>Sal</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>6079</v>
+        <v>6292</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>HERB005412</t>
+          <t>HERB005096</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>DNH5181</t>
+          <t>DNH4944</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TIAN DONG</t>
+          <t>SHU JIAO</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>天冬</t>
+          <t>蜀椒</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Cochinchinese Asparagus Root</t>
+          <t>Pricklyash Peel</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Radix Asparagi</t>
+          <t>Pericarpium Zanthoxyli</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1369</v>
+        <v>5675</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>HERB005434</t>
+          <t>HERB005123</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>DNH5194</t>
+          <t>DNH5096</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TIAN MA</t>
+          <t>SU MU</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>天麻</t>
+          <t>苏木</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tall Gastrodia</t>
+          <t>Sappan Caesalpinia</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Gastrodia elata</t>
+          <t>Caesalpinia sappan</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>6741</v>
+        <v>4597</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>HERB005451</t>
+          <t>HERB005297</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>DNH5195</t>
+          <t>DNH5097</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TIAN MEN DONG</t>
+          <t>SU QIAO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>天门冬</t>
+          <t>粟壳</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Cochinchinese Asparagus</t>
+          <t>poppy capsule</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Asparagus cochinchinensis [Syn. Asparagus lucidus ]</t>
+          <t>pericarpium papaveris</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1110</v>
+        <v>7621</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>HERB005452</t>
+          <t>HERB005298</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>DNH5264</t>
+          <t>DNH5103</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TIAN XIONG</t>
+          <t>SU YE</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>天雄</t>
+          <t>苏叶</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Radix Aconiti carmichaeli</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
+          <t>perilla leaf</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>folium perillae</t>
+        </is>
+      </c>
       <c r="F166" t="n">
-        <v>1163</v>
+        <v>7128</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>HERB005478</t>
+          <t>HERB005304</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>DNH5362</t>
+          <t>DNH5104</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TU FU LING</t>
+          <t>SU ZI</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>土茯苓</t>
+          <t>苏子</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Glabrous Greenbrier Rhizome</t>
+          <t>Purple perilla fruit, Perilla seed</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Rhizoma Smilacis Glabrae</t>
+          <t>Fructus Perillae</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2756</v>
+        <v>3604</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>HERB005564</t>
+          <t>HERB005306</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>DNH5449</t>
+          <t>DNH5162</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>WANG BU LIU XING</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>王不留行</t>
+          <t>桃</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Vacarria seed, Cow soapwort seed</t>
+          <t>Peach</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Semen Vaccariae</t>
+          <t>Prunus persica</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1472</v>
+        <v>5445</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>HERB005637</t>
+          <t>HERB005402</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>DNH5478</t>
+          <t>DNH5169</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>WU JIA PI</t>
+          <t>TAO REN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>五加皮</t>
+          <t>桃仁</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Slenderstyle Acanthopanax Root-bark Equivalent plant: Acanthopanax sessiliflorus , Acanthopanax senticosus</t>
+          <t>Peach Seed</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Acanthopanax gracilistylus</t>
+          <t>Semen Persicae</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>7654</v>
+        <v>6079</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>HERB005717</t>
+          <t>HERB005412</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>DNH5495</t>
+          <t>DNH5181</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>WU MEI</t>
+          <t>TIAN DONG</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>乌梅</t>
+          <t>天冬</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Smoked Plum</t>
+          <t>Cochinchinese Asparagus Root</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Fructus Mume</t>
+          <t>Radix Asparagi</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5279</v>
+        <v>1369</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>HERB005742</t>
+          <t>HERB005434</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>DNH5505</t>
+          <t>DNH5194</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>WU TOU</t>
+          <t>TIAN MA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>乌头</t>
+          <t>天麻</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Common Monkshood Equivalent plant: Aconitum karakolicum, Aconitum balfourii</t>
+          <t>Tall Gastrodia</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aconitum carmichaeli</t>
+          <t>Gastrodia elata</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>6413</v>
+        <v>6741</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>HERB005759</t>
+          <t>HERB005451</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>DNH5508</t>
+          <t>DNH5195</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>WU WEI ZI</t>
+          <t>TIAN MEN DONG</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>五味子</t>
+          <t>天门冬</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Chinese Magnoliavine Equivalent plant: Schisandra sphenanthera</t>
+          <t>Cochinchinese Asparagus</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Schisandra chinensis</t>
+          <t>Asparagus cochinchinensis [Syn. Asparagus lucidus ]</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1518</v>
+        <v>1110</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>HERB005762</t>
+          <t>HERB005452</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>DNH5520</t>
+          <t>DNH5264</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>WU ZHU YU</t>
+          <t>TIAN XIONG</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>吴茱萸</t>
+          <t>天雄</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Medicil Evodia Fruit</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Fructus Evodiae</t>
-        </is>
-      </c>
+          <t>Radix Aconiti carmichaeli</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>7935</v>
+        <v>1163</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>HERB005782</t>
+          <t>HERB005478</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>DNH5557</t>
+          <t>DNH5362</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>XI JIAO</t>
+          <t>TU FU LING</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>犀角</t>
+          <t>土茯苓</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Rhinoceros Horn</t>
+          <t>Glabrous Greenbrier Rhizome</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Rhinoceros unicornis , Rhinoceros sondaicus , Rhinoceros sumatrensis</t>
+          <t>Rhizoma Smilacis Glabrae</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>6274</v>
+        <v>2756</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>HERB005835</t>
+          <t>HERB005564</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>DNH5635</t>
+          <t>DNH5449</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>XI XIN</t>
+          <t>WANG BU LIU XING</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>细辛</t>
+          <t>王不留行</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>all-grass Manchurian wildginger</t>
+          <t>Vacarria seed, Cow soapwort seed</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Herba Asari</t>
+          <t>Semen Vaccariae</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3947</v>
+        <v>1472</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>HERB005894</t>
+          <t>HERB005637</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>DNH5662</t>
+          <t>DNH5478</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>XIA GUO QIAN HU</t>
+          <t>WU JIA PI</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>前胡</t>
+          <t>五加皮</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Narrowfruit Hogfennel</t>
+          <t>Slenderstyle Acanthopanax Root-bark Equivalent plant: Acanthopanax sessiliflorus , Acanthopanax senticosus</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Peucedanum stenocarpum</t>
+          <t>Acanthopanax gracilistylus</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1880</v>
+        <v>7654</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>HERB005937</t>
+          <t>HERB005717</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>DNH5797</t>
+          <t>DNH5495</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>XIANG YE</t>
+          <t>WU MEI</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>香叶</t>
+          <t>乌梅</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Roce Pelargonium</t>
+          <t>Smoked Plum</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Pelargonium graveolens</t>
+          <t>Fructus Mume</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2812</v>
+        <v>5279</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>HERB006057</t>
+          <t>HERB005742</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>DNH5806</t>
+          <t>DNH5505</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>XIANH FU</t>
+          <t>WU TOU</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>香附</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
+          <t>乌头</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Common Monkshood Equivalent plant: Aconitum karakolicum, Aconitum balfourii</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Aconitum carmichaeli</t>
+        </is>
+      </c>
       <c r="F178" t="n">
-        <v>4546</v>
+        <v>6413</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>HERB006068</t>
+          <t>HERB005759</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>DNH5859</t>
+          <t>DNH5508</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>XIAO XI CANG ER</t>
+          <t>WU WEI ZI</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>苍耳</t>
+          <t>五味子</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Ripply Cocklebur</t>
+          <t>Chinese Magnoliavine Equivalent plant: Schisandra sphenanthera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Xanthium riparium</t>
+          <t>Schisandra chinensis</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>6060</v>
+        <v>1518</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>HERB006156</t>
+          <t>HERB005762</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>DNH5898</t>
+          <t>DNH5520</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>XIN YI</t>
+          <t>WU ZHU YU</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>辛夷</t>
+          <t>吴茱萸</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Magnoliae Flos</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
+          <t>Medicil Evodia Fruit</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Fructus Evodiae</t>
+        </is>
+      </c>
       <c r="F180" t="n">
-        <v>1602</v>
+        <v>7935</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>HERB006228</t>
+          <t>HERB005782</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>DNH5903</t>
+          <t>DNH5557</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>XING REN</t>
+          <t>XI JIAO</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>犀角</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Apricot Seed Equivalent plant: Prunus armeniaca var ansu</t>
+          <t>Rhinoceros Horn</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Prunus armeniaca</t>
+          <t>Rhinoceros unicornis , Rhinoceros sondaicus , Rhinoceros sumatrensis</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>7419</v>
+        <v>6274</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>HERB006236</t>
+          <t>HERB005835</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>DNH5924</t>
+          <t>DNH5635</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>XUAN FU HUA</t>
+          <t>XI XIN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>旋覆花</t>
+          <t>细辛</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Inula Flower</t>
+          <t>all-grass Manchurian wildginger</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Flos Inulae</t>
+          <t>Herba Asari</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>7446</v>
+        <v>3947</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>HERB006269</t>
+          <t>HERB005894</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>DNH5933</t>
+          <t>DNH5662</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>XUAN SHEN</t>
+          <t>XIA GUO QIAN HU</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>玄参</t>
+          <t>前胡</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Figwort Root</t>
+          <t>Narrowfruit Hogfennel</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Radix Scrophulariae</t>
+          <t>Peucedanum stenocarpum</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5034</v>
+        <v>1880</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>HERB006280</t>
+          <t>HERB005937</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>DNH5969</t>
+          <t>DNH5797</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>YA ZAO</t>
+          <t>XIANG YE</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>牙皂</t>
+          <t>香叶</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Chinese Honeylocust Abnormal Fruit</t>
+          <t>Roce Pelargonium</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>FructusGleditsia</t>
+          <t>Pelargonium graveolens</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>6495</v>
+        <v>2812</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>HERB006334</t>
+          <t>HERB006057</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>DNH6282</t>
+          <t>DNH5806</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>YING SU</t>
+          <t>XIANH FU</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>罂粟</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Opium Poppy</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Papaver somniferum</t>
-        </is>
-      </c>
+          <t>香附</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
-        <v>1389</v>
+        <v>4546</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>HERB006652</t>
+          <t>HERB006068</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>DNH6283</t>
+          <t>DNH5859</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>YING SU KE</t>
+          <t>XIAO XI CANG ER</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>罂粟壳</t>
+          <t>苍耳</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>poppy capsule</t>
+          <t>Ripply Cocklebur</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>pericarpium papaveris</t>
+          <t>Xanthium riparium</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>6842</v>
+        <v>6060</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>HERB006653</t>
+          <t>HERB006156</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>DNH6418</t>
+          <t>DNH5898</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>YUAN ZHI</t>
+          <t>XIN YI</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>远志</t>
+          <t>辛夷</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Thinleaf Milkwort Equivalent plant: Polygala sibirica</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Polygala tenuifolia</t>
-        </is>
-      </c>
+          <t>Magnoliae Flos</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
       <c r="F187" t="n">
-        <v>1010</v>
+        <v>1602</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>HERB006798</t>
+          <t>HERB006228</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>DNH6521</t>
+          <t>DNH5903</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ZAO CI</t>
+          <t>XING REN</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>皂刺</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>spine of Chinese Honeylocust</t>
+          <t>Apricot Seed Equivalent plant: Prunus armeniaca var ansu</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Spina gleditsiae</t>
+          <t>Prunus armeniaca</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1245</v>
+        <v>7419</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>HERB006883</t>
+          <t>HERB006236</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>DNH6571</t>
+          <t>DNH5924</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ZAO JIAO CI</t>
+          <t>XUAN FU HUA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>皂角刺</t>
+          <t>旋覆花</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>spine of Chinese Honeylocust</t>
+          <t>Inula Flower</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Spi gleditsiae</t>
+          <t>Flos Inulae</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2751</v>
+        <v>7446</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>HERB006891</t>
+          <t>HERB006269</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>DNH6584</t>
+          <t>DNH5933</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ZE XIE</t>
+          <t>XUAN SHEN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>泽泻</t>
+          <t>玄参</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>rhizome of Oriental Waterplantain</t>
+          <t>Figwort Root</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Rhizoma Alismatis</t>
+          <t>Radix Scrophulariae</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2349</v>
+        <v>5034</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>HERB006908</t>
+          <t>HERB006280</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>DNH6630</t>
+          <t>DNH5969</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ZHI CAO</t>
+          <t>YA ZAO</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>炙草</t>
+          <t>牙皂</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Prepared Root of Ural Licorice</t>
+          <t>Chinese Honeylocust Abnormal Fruit</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Radix Glycyrrhizae Praeparata</t>
+          <t>FructusGleditsia</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>3921</v>
+        <v>6495</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>HERB006982</t>
+          <t>HERB006334</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>DNH6638</t>
+          <t>DNH6282</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ZHI GAN CAO</t>
+          <t>YING SU</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>炙甘草</t>
+          <t>罂粟</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Prepared Liauorice Root</t>
+          <t>Opium Poppy</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Radix Glycyrrhizae Preparata</t>
+          <t>Papaver somniferum</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>6345</v>
+        <v>1389</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>HERB006990</t>
+          <t>HERB006652</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>DNH6658</t>
+          <t>DNH6283</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ZHI MA HUANG</t>
+          <t>YING SU KE</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>炙麻黄</t>
+          <t>罂粟壳</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Prepared Ephedra</t>
+          <t>poppy capsule</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Herba Ephedrae Preparata</t>
+          <t>pericarpium papaveris</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>6817</v>
+        <v>6842</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>HERB007018</t>
+          <t>HERB006653</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>DNH6663</t>
+          <t>DNH6337</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ZHI MU</t>
+          <t>YU XING CAO</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>知母</t>
+          <t>鱼腥草</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>rhizome of Common Amarrhe</t>
+          <t>all-grass of Heartleaf Houttuynia</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Rhizoma Anemarrhee</t>
+          <t>Herba Houttuyniae</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1304</v>
+        <v>3847</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>HERB007023</t>
+          <t>HERB006741</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>DNH6666</t>
+          <t>DNH6418</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ZHI QIAO</t>
+          <t>YUAN ZHI</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>枳壳</t>
+          <t>远志</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>fruit of Seville orange</t>
+          <t>Thinleaf Milkwort Equivalent plant: Polygala sibirica</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Fructus Aurantii</t>
+          <t>Polygala tenuifolia</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3567</v>
+        <v>1010</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>HERB007026</t>
+          <t>HERB006798</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>DNH6672</t>
+          <t>DNH6521</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ZHI SHI</t>
+          <t>ZAO CI</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>枳实</t>
+          <t>皂刺</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>immature fruit of Seville orange</t>
+          <t>spine of Chinese Honeylocust</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Fructus Aurantii Immaturus</t>
+          <t>Spina gleditsiae</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>3379</v>
+        <v>1245</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>HERB007034</t>
+          <t>HERB006883</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>DNH6680</t>
+          <t>DNH6571</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ZHI ZI</t>
+          <t>ZAO JIAO CI</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>栀子</t>
+          <t>皂角刺</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>fruit of Cape Jasmine</t>
+          <t>spine of Chinese Honeylocust</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Fructus Gardeniae</t>
+          <t>Spi gleditsiae</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2221</v>
+        <v>2751</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>HERB007046</t>
+          <t>HERB006891</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>DNH6768</t>
+          <t>DNH6584</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ZHU SHA</t>
+          <t>ZE XIE</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>朱砂</t>
+          <t>泽泻</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Cinnabar</t>
+          <t>rhizome of Oriental Waterplantain</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Cinnabaris</t>
+          <t>Rhizoma Alismatis</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>5260</v>
+        <v>2349</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>HERB007117</t>
+          <t>HERB006908</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>DNH6798</t>
+          <t>DNH6630</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ZI CAO</t>
+          <t>ZHI CAO</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>紫草</t>
+          <t>炙草</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Arnebia Root Gromwell Root</t>
+          <t>Prepared Root of Ural Licorice</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Radix Arnebiae seu Lithospermi</t>
+          <t>Radix Glycyrrhizae Praeparata</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>3969</v>
+        <v>3921</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>HERB007160</t>
+          <t>HERB006982</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>DNH6832</t>
+          <t>DNH6638</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ZI SHI YING</t>
+          <t>ZHI GAN CAO</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>紫石英</t>
+          <t>炙甘草</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Fluorite</t>
+          <t>Prepared Liauorice Root</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Fluoritum</t>
+          <t>Radix Glycyrrhizae Preparata</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1494</v>
+        <v>6345</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>HERB007206</t>
+          <t>HERB006990</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>DNH6834</t>
+          <t>DNH6658</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ZI SU</t>
+          <t>ZHI MA HUANG</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>紫苏</t>
+          <t>炙麻黄</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Perilla Frutescens</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
+          <t>Prepared Ephedra</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Herba Ephedrae Preparata</t>
+        </is>
+      </c>
       <c r="F201" t="n">
-        <v>5660</v>
+        <v>6817</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>HERB007208</t>
+          <t>HERB007018</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>DNH6837</t>
+          <t>DNH6663</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ZI SU YE</t>
+          <t>ZHI MU</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>紫苏叶</t>
+          <t>知母</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Common Perilla Leaf Equivalent plant: Perilla frutescens var acuta</t>
+          <t>rhizome of Common Amarrhe</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Perilla frutescens var. arguta</t>
+          <t>Rhizoma Anemarrhee</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>4762</v>
+        <v>1304</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>HERB007211</t>
+          <t>HERB007023</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>DNH6839</t>
+          <t>DNH6666</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ZI SU ZI</t>
+          <t>ZHI QIAO</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>紫苏子</t>
+          <t>枳壳</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Perilia Fruit</t>
+          <t>fruit of Seville orange</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Fructus Perillae</t>
+          <t>Fructus Aurantii</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1464</v>
+        <v>3567</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>HERB007213</t>
+          <t>HERB007026</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>DNH6672</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ZHI SHI</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>枳实</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>immature fruit of Seville orange</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Fructus Aurantii Immaturus</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>3379</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>HERB007034</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>DNH6680</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ZHI ZI</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>栀子</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>fruit of Cape Jasmine</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Fructus Gardeniae</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>2221</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>HERB007046</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>DNH6768</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ZHU SHA</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>朱砂</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Cinnabar</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Cinnabaris</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>5260</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>HERB007117</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>DNH6798</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ZI CAO</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>紫草</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Arnebia Root Gromwell Root</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Radix Arnebiae seu Lithospermi</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>3969</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>HERB007160</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>DNH6832</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ZI SHI YING</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>紫石英</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Fluorite</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Fluoritum</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>1494</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>HERB007206</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>DNH6834</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ZI SU</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>紫苏</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Perilla Frutescens</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="n">
+        <v>5660</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>HERB007208</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>DNH6837</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ZI SU YE</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>紫苏叶</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Common Perilla Leaf Equivalent plant: Perilla frutescens var acuta</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Perilla frutescens var. arguta</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>4762</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>HERB007211</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>DNH6839</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ZI SU ZI</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>紫苏子</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Perilia Fruit</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Fructus Perillae</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>1464</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>HERB007213</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
           <t>DNH6846</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>ZI WAN</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>紫菀</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>root of tatarian aster</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>radix asteris</t>
         </is>
       </c>
-      <c r="F204" t="n">
+      <c r="F212" t="n">
         <v>1401</v>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>HERB007221</t>
         </is>
@@ -43287,7 +43754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43628,6 +44095,18 @@
       <c r="B28" t="inlineStr">
         <is>
           <t>DNF108096</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DNS001</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DNF114844</t>
         </is>
       </c>
     </row>
